--- a/DATA_goal/Junction_Flooding_281.xlsx
+++ b/DATA_goal/Junction_Flooding_281.xlsx
@@ -468,8 +468,8 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41713.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.96</v>
+        <v>2.3</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.85</v>
+        <v>1.58</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.35</v>
+        <v>4.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.99</v>
+        <v>4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>59.97</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.81</v>
+        <v>2.78</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.23</v>
+        <v>1.82</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.14</v>
+        <v>1.91</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.07</v>
+        <v>2.01</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.29</v>
+        <v>2.53</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>266.2</v>
+        <v>26.62</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.05</v>
+        <v>5</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.24</v>
+        <v>3.32</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.32</v>
+        <v>1.73</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.81</v>
+        <v>2.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.15</v>
+        <v>1.31</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.81</v>
+        <v>1.98</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>52.98</v>
+        <v>5.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41713.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.93</v>
+        <v>3.09</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>46.04</v>
+        <v>4.6</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.95</v>
+        <v>1.29</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.35</v>
+        <v>1.14</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>165.51</v>
+        <v>16.55</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.83</v>
+        <v>3.18</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>21.11</v>
+        <v>2.11</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.91</v>
+        <v>2.19</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>41.63</v>
+        <v>4.16</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41713.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.33</v>
+        <v>2.13</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>45.99</v>
+        <v>4.6</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>38.05</v>
+        <v>3.8</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.79</v>
+        <v>1.68</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>64.34999999999999</v>
+        <v>6.44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.83</v>
+        <v>2.58</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.52</v>
+        <v>1.85</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.41</v>
+        <v>1.94</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23.71</v>
+        <v>2.37</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>246.77</v>
+        <v>24.68</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>46.66</v>
+        <v>4.67</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.28</v>
+        <v>3.13</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.22</v>
+        <v>3.12</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.24</v>
+        <v>1.42</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.38</v>
+        <v>1.94</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>58.13</v>
+        <v>5.81</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.66</v>
+        <v>0.87</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41713.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>27.7</v>
+        <v>2.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.92</v>
+        <v>2.29</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.07</v>
+        <v>4.21</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.67</v>
+        <v>1.17</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>146.05</v>
+        <v>14.61</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.26</v>
+        <v>2.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.88</v>
+        <v>1.89</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.92</v>
+        <v>1.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.7</v>
+        <v>1.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.12</v>
+        <v>3.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41713.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>24.83</v>
+        <v>2.48</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>20.54</v>
+        <v>2.05</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>36.42</v>
+        <v>3.64</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.15</v>
+        <v>0.61</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>130.02</v>
+        <v>13</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>25.26</v>
+        <v>2.53</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>16.89</v>
+        <v>1.69</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>32.91</v>
+        <v>3.29</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41713.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>27.8</v>
+        <v>2.78</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>22.99</v>
+        <v>2.3</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>39.44</v>
+        <v>3.94</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>11.25</v>
+        <v>1.12</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>146.03</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>28.17</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>19.04</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>35.64</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>5.22</v>
-      </c>
       <c r="AH7" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41713.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>23.23</v>
+        <v>2.32</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>19.21</v>
+        <v>1.92</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>34</v>
+        <v>3.4</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>120.86</v>
+        <v>12.09</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>23.59</v>
+        <v>2.36</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>30.81</v>
+        <v>3.08</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41713.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>20.37</v>
+        <v>2.04</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>44.15</v>
+        <v>4.42</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>36.51</v>
+        <v>3.65</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>60.35</v>
+        <v>6.03</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>24.67</v>
+        <v>2.47</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>17.81</v>
+        <v>1.78</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>18.7</v>
+        <v>1.87</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>15.94</v>
+        <v>1.59</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>22.73</v>
+        <v>2.27</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.34</v>
+        <v>1.33</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>235.31</v>
+        <v>23.53</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>44.53</v>
+        <v>4.45</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>30.03</v>
+        <v>3</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>15.9</v>
+        <v>1.59</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>29.62</v>
+        <v>2.96</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>54.63</v>
+        <v>5.46</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>18.4</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41713.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>34.97</v>
+        <v>3.5</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>28.92</v>
+        <v>2.89</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>50.77</v>
+        <v>5.08</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>19.55</v>
+        <v>1.95</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>18.02</v>
+        <v>1.8</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>184.96</v>
+        <v>18.5</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>35.37</v>
+        <v>3.54</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>23.83</v>
+        <v>2.38</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>24.47</v>
+        <v>2.45</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9.1</v>
+        <v>0.91</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>46.09</v>
+        <v>4.61</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_281.xlsx
+++ b/DATA_goal/Junction_Flooding_281.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41713.34027777778</v>
+        <v>44962.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.83</v>
+        <v>5.07</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4</v>
+        <v>4.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6</v>
+        <v>6.32</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.78</v>
+        <v>2.91</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.62</v>
+        <v>27.88</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5</v>
+        <v>5.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.49</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.98</v>
+        <v>3.13</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.3</v>
+        <v>5.59</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41713.34722222222</v>
+        <v>44962.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.45</v>
+        <v>2.35</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.7</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.09</v>
+        <v>5.06</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.56</v>
+        <v>4.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.85</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.6</v>
+        <v>7.2</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.76</v>
+        <v>2.85</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.76</v>
+        <v>1.25</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.15</v>
+        <v>1.89</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.29</v>
+        <v>2.13</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.84</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.6</v>
+        <v>2.61</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.97</v>
+        <v>1.55</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>16.55</v>
+        <v>27.31</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.18</v>
+        <v>5.15</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.11</v>
+        <v>3.45</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.83</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.19</v>
+        <v>3.47</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.84</v>
+        <v>1.34</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.98</v>
+        <v>1.57</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.29</v>
+        <v>2.12</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.16</v>
+        <v>6.51</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.96</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.31</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41713.35416666666</v>
+        <v>44962.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.13</v>
+        <v>1.83</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.6</v>
+        <v>3.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.44</v>
+        <v>5.76</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.58</v>
+        <v>2.21</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.97</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.94</v>
+        <v>1.66</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.37</v>
+        <v>2.03</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>24.68</v>
+        <v>21.01</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.67</v>
+        <v>4</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.13</v>
+        <v>2.68</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.66</v>
+        <v>1.43</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.12</v>
+        <v>2.74</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.81</v>
+        <v>5.21</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41713.36111111111</v>
+        <v>44962.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.77</v>
+        <v>2.16</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.29</v>
+        <v>1.79</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.01</v>
+        <v>0.79</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.21</v>
+        <v>3.4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.8</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P5" s="4" t="n">
         <v>1.12</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.43</v>
-      </c>
       <c r="Q5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.61</v>
+        <v>11.29</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.83</v>
+        <v>2.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.89</v>
+        <v>1.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.01</v>
+        <v>0.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.99</v>
+        <v>1.59</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.91</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.81</v>
+        <v>3.08</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41713.36805555555</v>
+        <v>44962.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.48</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.48</v>
+        <v>2.89</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.05</v>
+        <v>2.43</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.91</v>
+        <v>1.14</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.64</v>
+        <v>10.08</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
       <c r="K6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AA6" s="4" t="n">
         <v>0.92</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.74</v>
-      </c>
       <c r="AB6" s="4" t="n">
-        <v>0.66</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.77</v>
+        <v>1.07</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.29</v>
+        <v>9.43</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41713.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41713.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41713.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41713.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41713.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>51.71</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>42.76</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>72.01000000000001</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>28.85</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>26.62</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>276.53</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>52.14</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>35.21</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>35.16</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>21.85</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>65.28</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>21.52</v>
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_281.xlsx
+++ b/DATA_goal/Junction_Flooding_281.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44962.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.07</v>
+        <v>50.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.19</v>
+        <v>41.95</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.32</v>
+        <v>63.18</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.18</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.99</v>
+        <v>19.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.09</v>
+        <v>20.92</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.65</v>
+        <v>26.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.6</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>27.88</v>
+        <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.24</v>
+        <v>52.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.49</v>
+        <v>34.89</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.13</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.13</v>
+        <v>31.29</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.6</v>
+        <v>16.03</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.71</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.59</v>
+        <v>55.94</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44962.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>51.54</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>2.35</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>27.31</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.24</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>3.47</v>
+        <v>34.68</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.43</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.75</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.18</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.51</v>
+        <v>65.08</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44962.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.83</v>
+        <v>18.26</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.27</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.93</v>
+        <v>39.32</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.26</v>
+        <v>32.56</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.37</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.76</v>
+        <v>57.61</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.11</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.73</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.65</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.73</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.58</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.28</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.08</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.01</v>
+        <v>210.15</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.68</v>
+        <v>26.79</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.25</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.74</v>
+        <v>27.44</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.4</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.21</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.53</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.21</v>
+        <v>52.09</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44962.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.25</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.16</v>
+        <v>21.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.4</v>
+        <v>34.01</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.35</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.67</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.29</v>
+        <v>112.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.22</v>
+        <v>22.19</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.78</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.79</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.08</v>
+        <v>30.82</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_281.xlsx
+++ b/DATA_goal/Junction_Flooding_281.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44962.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>24.02</v>
+        <v>24.021</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.69</v>
+        <v>16.687</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.255</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>50.7</v>
+        <v>50.696</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.95</v>
+        <v>41.946</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.9</v>
+        <v>18.904</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>63.18</v>
+        <v>63.181</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.43</v>
+        <v>12.432</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.18</v>
+        <v>19.179</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.93</v>
+        <v>19.925</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.92</v>
+        <v>20.923</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.04</v>
+        <v>6.036</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>26.51</v>
+        <v>26.508</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.6</v>
+        <v>15.598</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.83</v>
+        <v>3.832</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.61</v>
+        <v>2.606</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>52.37</v>
+        <v>52.368</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.89</v>
+        <v>34.892</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.13</v>
+        <v>18.126</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.39</v>
+        <v>2.393</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.29</v>
+        <v>31.289</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.71</v>
+        <v>13.706</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>16.03</v>
+        <v>16.029</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.71</v>
+        <v>20.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>55.94</v>
+        <v>55.941</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="3">
@@ -759,100 +759,100 @@
         <v>44962.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.54</v>
+        <v>23.541</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.01</v>
+        <v>17.013</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.05</v>
+        <v>2.054</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>50.6</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.89</v>
+        <v>41.891</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.53</v>
+        <v>18.526</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>71.95999999999999</v>
+        <v>71.955</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>28.5</v>
+        <v>28.505</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.5</v>
+        <v>12.498</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.89</v>
+        <v>18.893</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.19</v>
+        <v>20.186</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.29</v>
+        <v>21.288</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.92</v>
+        <v>5.918</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.14</v>
+        <v>26.136</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.53</v>
+        <v>15.526</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.7</v>
+        <v>1.698</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.28</v>
+        <v>1.276</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>273.1</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>51.54</v>
+        <v>51.542</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.51</v>
+        <v>34.508</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.29</v>
+        <v>18.294</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.35</v>
+        <v>2.351</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.68</v>
+        <v>34.681</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.43</v>
+        <v>13.426</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.75</v>
+        <v>15.745</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.18</v>
+        <v>21.176</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>65.08</v>
+        <v>65.083</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>21.26</v>
@@ -863,37 +863,37 @@
         <v>44962.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.26</v>
+        <v>18.256</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.27</v>
+        <v>13.269</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.38</v>
+        <v>1.385</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>39.32</v>
+        <v>39.316</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.56</v>
+        <v>32.559</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.37</v>
+        <v>14.367</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>57.61</v>
+        <v>57.614</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.11</v>
+        <v>22.106</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.73</v>
+        <v>9.728999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.65</v>
+        <v>14.653</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.73</v>
+        <v>15.732</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>16.58</v>
@@ -902,64 +902,64 @@
         <v>4.59</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.28</v>
+        <v>20.283</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.08</v>
+        <v>12.082</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.106</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.865</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>210.15</v>
+        <v>210.146</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>40</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.79</v>
+        <v>26.786</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.25</v>
+        <v>14.255</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.815</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.44</v>
+        <v>27.441</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.65</v>
+        <v>11.648</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.4</v>
+        <v>10.404</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.21</v>
+        <v>12.208</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.53</v>
+        <v>16.532</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>52.09</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.41</v>
+        <v>7.406</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.49</v>
+        <v>16.487</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.109999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44962.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_281.xlsx
+++ b/DATA_goal/Junction_Flooding_281.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44962.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.09</v>
+        <v>10.089</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.25</v>
+        <v>7.246</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.895</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.65</v>
+        <v>21.647</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.94</v>
+        <v>17.944</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>7.94</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.01</v>
+        <v>34.012</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.22</v>
+        <v>12.216</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.35</v>
+        <v>5.346</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.67</v>
+        <v>8.672000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.54</v>
+        <v>2.538</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.19</v>
+        <v>11.188</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.76</v>
+        <v>6.756</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.522</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.86</v>
+        <v>112.861</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.19</v>
+        <v>22.187</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.78</v>
+        <v>14.784</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.92</v>
+        <v>7.923</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.981</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.88</v>
+        <v>15.879</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.79</v>
+        <v>5.794</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>6.79</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.121</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>30.816</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.058</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>9.112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44962.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>30.82</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>9.109999999999999</v>
+      <c r="S6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_281.xlsx
+++ b/DATA_goal/Junction_Flooding_281.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44962.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.089</v>
+        <v>10.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.246</v>
+        <v>7.25</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.895</v>
+        <v>0.89</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.647</v>
+        <v>21.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.944</v>
+        <v>17.94</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>7.94</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.012</v>
+        <v>34.01</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.216</v>
+        <v>12.22</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.346</v>
+        <v>5.35</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.048999999999999</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.672000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.112</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.538</v>
+        <v>2.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.895</v>
+        <v>7.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.188</v>
+        <v>11.19</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.756</v>
+        <v>6.76</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.784</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.522</v>
+        <v>0.52</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.861</v>
+        <v>112.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.187</v>
+        <v>22.19</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.288</v>
+        <v>7.29</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.784</v>
+        <v>14.78</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.923</v>
+        <v>7.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.981</v>
+        <v>0.98</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.879</v>
+        <v>15.88</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.437</v>
+        <v>6.44</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.794</v>
+        <v>5.79</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>6.79</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.121</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>30.816</v>
+        <v>30.82</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.058</v>
+        <v>4.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.112</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44962.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.31</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>
